--- a/media/student_import.xlsx
+++ b/media/student_import.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ash\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F3710A-DAFC-451E-A8F8-8863AAAB4438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A9BB98-E45E-4DCD-8B8B-3D438FC9BB13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1071,7 +1072,7 @@
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A3" sqref="A3:G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1141,8 +1142,8 @@
         <v>13</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" ca="1" si="0">IF(RAND()&lt;0.5,"男","女")</f>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>213</v>
@@ -1166,7 +1167,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1191,7 +1192,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1216,7 +1217,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1241,7 +1242,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1266,8 +1267,8 @@
         <v>23</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>213</v>
@@ -1291,8 +1292,8 @@
         <v>25</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>213</v>
@@ -1316,8 +1317,8 @@
         <v>27</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>213</v>
@@ -1341,7 +1342,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1366,7 +1367,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1391,7 +1392,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1416,8 +1417,8 @@
         <v>35</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>213</v>
@@ -1441,7 +1442,7 @@
         <v>37</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1466,8 +1467,8 @@
         <v>39</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>213</v>
@@ -1491,7 +1492,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -1516,8 +1517,8 @@
         <v>43</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>213</v>
@@ -1541,8 +1542,8 @@
         <v>45</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>213</v>
@@ -1566,8 +1567,8 @@
         <v>47</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>213</v>
@@ -1591,7 +1592,7 @@
         <v>49</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -1616,8 +1617,8 @@
         <v>51</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>213</v>
@@ -1641,7 +1642,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -1666,8 +1667,8 @@
         <v>55</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>213</v>
@@ -1691,8 +1692,8 @@
         <v>57</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>213</v>
@@ -1716,7 +1717,7 @@
         <v>59</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -1741,8 +1742,8 @@
         <v>61</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>213</v>
@@ -1766,8 +1767,8 @@
         <v>63</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>213</v>
@@ -1791,8 +1792,8 @@
         <v>65</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>213</v>
@@ -1816,8 +1817,8 @@
         <v>67</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>213</v>
@@ -1841,8 +1842,8 @@
         <v>69</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>213</v>
@@ -1866,8 +1867,8 @@
         <v>71</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>213</v>
@@ -1891,7 +1892,7 @@
         <v>73</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -1916,7 +1917,7 @@
         <v>75</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -1941,8 +1942,8 @@
         <v>77</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>213</v>
@@ -1966,8 +1967,8 @@
         <v>79</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>213</v>
@@ -1991,8 +1992,8 @@
         <v>81</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>213</v>
@@ -2016,7 +2017,7 @@
         <v>83</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -2041,7 +2042,7 @@
         <v>85</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D39" s="7" t="s">
@@ -2066,7 +2067,7 @@
         <v>87</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D40" s="7" t="s">
@@ -2091,7 +2092,7 @@
         <v>89</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -2116,8 +2117,8 @@
         <v>91</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>213</v>
@@ -2141,7 +2142,7 @@
         <v>93</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D43" s="7" t="s">
@@ -2166,8 +2167,8 @@
         <v>95</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>213</v>
@@ -2191,7 +2192,7 @@
         <v>97</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D45" s="7" t="s">
@@ -2216,7 +2217,7 @@
         <v>99</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D46" s="7" t="s">
@@ -2241,7 +2242,7 @@
         <v>101</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -2266,7 +2267,7 @@
         <v>103</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -2291,7 +2292,7 @@
         <v>105</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D49" s="7" t="s">
@@ -2316,7 +2317,7 @@
         <v>107</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -2341,7 +2342,7 @@
         <v>109</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -2366,7 +2367,7 @@
         <v>111</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D52" s="7" t="s">
@@ -2391,8 +2392,8 @@
         <v>113</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>213</v>
@@ -2416,7 +2417,7 @@
         <v>115</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D54" s="7" t="s">
@@ -2441,8 +2442,8 @@
         <v>117</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>213</v>
@@ -2466,7 +2467,7 @@
         <v>119</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D56" s="7" t="s">
@@ -2491,7 +2492,7 @@
         <v>121</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D57" s="7" t="s">
@@ -2516,7 +2517,7 @@
         <v>123</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D58" s="7" t="s">
@@ -2541,8 +2542,8 @@
         <v>125</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>213</v>
@@ -2566,8 +2567,8 @@
         <v>127</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>213</v>
@@ -2616,8 +2617,8 @@
         <v>131</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>213</v>
@@ -2641,7 +2642,7 @@
         <v>133</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D63" s="7" t="s">
@@ -2666,8 +2667,8 @@
         <v>135</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>213</v>
@@ -2691,8 +2692,8 @@
         <v>137</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>213</v>
@@ -2716,8 +2717,8 @@
         <v>139</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>213</v>
@@ -2741,8 +2742,8 @@
         <v>141</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C103" ca="1" si="1">IF(RAND()&lt;0.5,"男","女")</f>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>213</v>
@@ -2766,7 +2767,7 @@
         <v>143</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -2791,8 +2792,8 @@
         <v>145</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>213</v>
@@ -2816,8 +2817,8 @@
         <v>147</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>213</v>
@@ -2841,7 +2842,7 @@
         <v>149</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D71" s="7" t="s">
@@ -2866,8 +2867,8 @@
         <v>151</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>213</v>
@@ -2891,8 +2892,8 @@
         <v>153</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>213</v>
@@ -2916,8 +2917,8 @@
         <v>155</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>213</v>
@@ -2941,7 +2942,7 @@
         <v>151</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D75" s="7" t="s">
@@ -2966,7 +2967,7 @@
         <v>158</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D76" s="7" t="s">
@@ -2991,8 +2992,8 @@
         <v>160</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>213</v>
@@ -3016,7 +3017,7 @@
         <v>162</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D78" s="7" t="s">
@@ -3041,7 +3042,7 @@
         <v>164</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D79" s="7" t="s">
@@ -3066,7 +3067,7 @@
         <v>166</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D80" s="7" t="s">
@@ -3091,7 +3092,7 @@
         <v>168</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D81" s="7" t="s">
@@ -3116,7 +3117,7 @@
         <v>170</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D82" s="7" t="s">
@@ -3141,8 +3142,8 @@
         <v>172</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>213</v>
@@ -3166,8 +3167,8 @@
         <v>174</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>213</v>
@@ -3191,8 +3192,8 @@
         <v>176</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>213</v>
@@ -3216,7 +3217,7 @@
         <v>178</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D86" s="7" t="s">
@@ -3241,7 +3242,7 @@
         <v>180</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D87" s="7" t="s">
@@ -3266,8 +3267,8 @@
         <v>182</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>213</v>
@@ -3291,7 +3292,7 @@
         <v>184</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D89" s="7" t="s">
@@ -3316,7 +3317,7 @@
         <v>186</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D90" s="7" t="s">
@@ -3341,8 +3342,8 @@
         <v>188</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>213</v>
@@ -3366,7 +3367,7 @@
         <v>190</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D92" s="7" t="s">
@@ -3391,8 +3392,8 @@
         <v>192</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>213</v>
@@ -3416,7 +3417,7 @@
         <v>194</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>男</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -3441,8 +3442,8 @@
         <v>196</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>213</v>
@@ -3466,7 +3467,7 @@
         <v>198</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D96" s="7" t="s">
@@ -3491,8 +3492,8 @@
         <v>200</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>213</v>
@@ -3516,8 +3517,8 @@
         <v>202</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>213</v>
@@ -3541,8 +3542,8 @@
         <v>204</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>女</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>男</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>213</v>
@@ -3566,8 +3567,8 @@
         <v>206</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>213</v>
@@ -3591,8 +3592,8 @@
         <v>208</v>
       </c>
       <c r="C101" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>213</v>
@@ -3616,8 +3617,8 @@
         <v>210</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>男</v>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
+        <v>女</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>213</v>
@@ -3641,7 +3642,7 @@
         <v>212</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(RAND()&lt;0.5,"男","女")</f>
         <v>女</v>
       </c>
       <c r="D103" s="7" t="s">
@@ -3663,4 +3664,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BE930E-8A6A-410B-B6BE-EC6ADECD78BE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="A1:G101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>